--- a/excelFiles/lion-login-metadata.xlsx
+++ b/excelFiles/lion-login-metadata.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10110" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12315" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Element</t>
   </si>
@@ -33,22 +33,115 @@
     <t>userName</t>
   </si>
   <si>
-    <t>//input[@name='email']</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
     <t>loginbutton</t>
   </si>
   <si>
     <t>button</t>
   </si>
   <si>
-    <t>Sign in</t>
-  </si>
-  <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>validateloginmessage</t>
+  </si>
+  <si>
+    <t>validatetext</t>
+  </si>
+  <si>
+    <t>div.alert-message</t>
+  </si>
+  <si>
+    <t>AcceptLoginAlert</t>
+  </si>
+  <si>
+    <t>LoanPurpose</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>css&amp;ion-segment[name="purchaseOrRefi"] ion-segment-button:nth-child(2)</t>
+  </si>
+  <si>
+    <t>bt&amp;Sign in</t>
+  </si>
+  <si>
+    <t>css&amp;button.alert-button</t>
+  </si>
+  <si>
+    <t>OPT_contact Policy</t>
+  </si>
+  <si>
+    <t>css&amp;button.app-button.save-continue</t>
+  </si>
+  <si>
+    <t>xp&amp;//ion-segment-button[text()='No']</t>
+  </si>
+  <si>
+    <t>SaveLoanPurpose</t>
+  </si>
+  <si>
+    <t>validateContactMessage</t>
+  </si>
+  <si>
+    <t>css&amp;div.error-box ion-content ion-label</t>
+  </si>
+  <si>
+    <t>acceptErrors</t>
+  </si>
+  <si>
+    <t>css&amp;bl-validation-error div.error-box div.page-bar button</t>
+  </si>
+  <si>
+    <t>xp&amp;//ion-input[@name='address']</t>
+  </si>
+  <si>
+    <t>css&amp;input[name="addressLine"]</t>
+  </si>
+  <si>
+    <t>openAdressForm</t>
+  </si>
+  <si>
+    <t>Adress Line</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>closeAdressForm</t>
+  </si>
+  <si>
+    <t>css&amp;input[name="city"]</t>
+  </si>
+  <si>
+    <t>css&amp;input[name="state"]</t>
+  </si>
+  <si>
+    <t>css&amp;input[name="zip"]</t>
+  </si>
+  <si>
+    <t>css&amp;button.auto-done</t>
+  </si>
+  <si>
+    <t>xp&amp;//input[@name='email']</t>
+  </si>
+  <si>
+    <t>xp&amp;//input[@name='password']</t>
+  </si>
+  <si>
+    <t>xp&amp;//input[@name='phoneNumber']</t>
+  </si>
+  <si>
+    <t>PrimaryResidence</t>
+  </si>
+  <si>
+    <t>css&amp;ion-toggle[name="primaryResidence"]</t>
   </si>
 </sst>
 </file>
@@ -391,17 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -423,29 +516,194 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
